--- a/Code/Results/Cases/Case_3_227/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_227/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.023738384046744</v>
+        <v>1.057975094177015</v>
       </c>
       <c r="D2">
-        <v>1.036404190187304</v>
+        <v>1.057198732715922</v>
       </c>
       <c r="E2">
-        <v>1.032411475021528</v>
+        <v>1.063884259865603</v>
       </c>
       <c r="F2">
-        <v>1.034159255399247</v>
+        <v>1.074285903361631</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051324320025036</v>
+        <v>1.047255178407985</v>
       </c>
       <c r="J2">
-        <v>1.045231546698926</v>
+        <v>1.062968722279131</v>
       </c>
       <c r="K2">
-        <v>1.047378625519982</v>
+        <v>1.059934358194967</v>
       </c>
       <c r="L2">
-        <v>1.04343700443668</v>
+        <v>1.066601692997784</v>
       </c>
       <c r="M2">
-        <v>1.045162358090015</v>
+        <v>1.076975518756298</v>
       </c>
       <c r="N2">
-        <v>1.046715895384973</v>
+        <v>1.064478259788983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.030098501303816</v>
+        <v>1.059255550931844</v>
       </c>
       <c r="D3">
-        <v>1.04130538799458</v>
+        <v>1.058195054297776</v>
       </c>
       <c r="E3">
-        <v>1.038170226778896</v>
+        <v>1.065098339828122</v>
       </c>
       <c r="F3">
-        <v>1.040944916383779</v>
+        <v>1.075749859333795</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053605960926053</v>
+        <v>1.047642588113682</v>
       </c>
       <c r="J3">
-        <v>1.049800975206393</v>
+        <v>1.063900270894081</v>
       </c>
       <c r="K3">
-        <v>1.051435689828226</v>
+        <v>1.060744004898174</v>
       </c>
       <c r="L3">
-        <v>1.048336940115069</v>
+        <v>1.067629870247748</v>
       </c>
       <c r="M3">
-        <v>1.05107939091452</v>
+        <v>1.07825498305456</v>
       </c>
       <c r="N3">
-        <v>1.051291813005041</v>
+        <v>1.065411131309818</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.034104904851801</v>
+        <v>1.060083402598871</v>
       </c>
       <c r="D4">
-        <v>1.044395003228568</v>
+        <v>1.058839047644678</v>
       </c>
       <c r="E4">
-        <v>1.041803252535947</v>
+        <v>1.065883590519318</v>
       </c>
       <c r="F4">
-        <v>1.045228170404795</v>
+        <v>1.076697225510287</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055032626581998</v>
+        <v>1.04789169323551</v>
       </c>
       <c r="J4">
-        <v>1.052674684593821</v>
+        <v>1.064501843561879</v>
       </c>
       <c r="K4">
-        <v>1.053985593116311</v>
+        <v>1.06126659447615</v>
       </c>
       <c r="L4">
-        <v>1.051422028432091</v>
+        <v>1.068294259798602</v>
       </c>
       <c r="M4">
-        <v>1.054809735781749</v>
+        <v>1.079082448109097</v>
       </c>
       <c r="N4">
-        <v>1.054169603389419</v>
+        <v>1.066013558279805</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.035764363236032</v>
+        <v>1.060431269827482</v>
       </c>
       <c r="D5">
-        <v>1.045675184835656</v>
+        <v>1.059109618416007</v>
       </c>
       <c r="E5">
-        <v>1.043309315217034</v>
+        <v>1.066213631272102</v>
       </c>
       <c r="F5">
-        <v>1.047004397940614</v>
+        <v>1.077095523291868</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055620964794839</v>
+        <v>1.047996041076183</v>
       </c>
       <c r="J5">
-        <v>1.053863808942028</v>
+        <v>1.064754459399422</v>
       </c>
       <c r="K5">
-        <v>1.055040333580105</v>
+        <v>1.061485980414837</v>
       </c>
       <c r="L5">
-        <v>1.052699473093076</v>
+        <v>1.068573353923771</v>
       </c>
       <c r="M5">
-        <v>1.056355556461835</v>
+        <v>1.07943021387318</v>
       </c>
       <c r="N5">
-        <v>1.055360416430595</v>
+        <v>1.066266532860812</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.036041572460923</v>
+        <v>1.060489668888953</v>
       </c>
       <c r="D6">
-        <v>1.04588906147229</v>
+        <v>1.059155038876855</v>
       </c>
       <c r="E6">
-        <v>1.043560972659066</v>
+        <v>1.066269042037022</v>
       </c>
       <c r="F6">
-        <v>1.047301236232379</v>
+        <v>1.077162400820405</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055719091992018</v>
+        <v>1.048013539522867</v>
       </c>
       <c r="J6">
-        <v>1.05406237972152</v>
+        <v>1.064796858047384</v>
       </c>
       <c r="K6">
-        <v>1.05521644005859</v>
+        <v>1.061522798114606</v>
       </c>
       <c r="L6">
-        <v>1.052912842785585</v>
+        <v>1.068620202508586</v>
       </c>
       <c r="M6">
-        <v>1.056613823537391</v>
+        <v>1.079488599475931</v>
       </c>
       <c r="N6">
-        <v>1.05555926920337</v>
+        <v>1.066308991719718</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.034127174588152</v>
+        <v>1.06008805144853</v>
       </c>
       <c r="D7">
-        <v>1.044412181398518</v>
+        <v>1.05884266366667</v>
       </c>
       <c r="E7">
-        <v>1.041823458804074</v>
+        <v>1.065888000845499</v>
       </c>
       <c r="F7">
-        <v>1.045251998888381</v>
+        <v>1.076702547481618</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055040532310649</v>
+        <v>1.047893089012367</v>
       </c>
       <c r="J7">
-        <v>1.052690647189375</v>
+        <v>1.064505220145227</v>
       </c>
       <c r="K7">
-        <v>1.053999753348619</v>
+        <v>1.061269527140315</v>
       </c>
       <c r="L7">
-        <v>1.051439173238759</v>
+        <v>1.0682979899105</v>
       </c>
       <c r="M7">
-        <v>1.054830477753236</v>
+        <v>1.07908709536318</v>
       </c>
       <c r="N7">
-        <v>1.054185588653689</v>
+        <v>1.066016939658288</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.025911179529463</v>
+        <v>1.058407975371499</v>
       </c>
       <c r="D8">
-        <v>1.038078062028714</v>
+        <v>1.057535588999023</v>
       </c>
       <c r="E8">
-        <v>1.034377652147944</v>
+        <v>1.06429463601546</v>
       </c>
       <c r="F8">
-        <v>1.036475570103204</v>
+        <v>1.074780638039057</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052105996482811</v>
+        <v>1.047386432064586</v>
       </c>
       <c r="J8">
-        <v>1.046793552639294</v>
+        <v>1.063283793705032</v>
       </c>
       <c r="K8">
-        <v>1.048765809269698</v>
+        <v>1.060208253666867</v>
       </c>
       <c r="L8">
-        <v>1.045111252211024</v>
+        <v>1.066949360268923</v>
       </c>
       <c r="M8">
-        <v>1.047183124228835</v>
+        <v>1.077408011556388</v>
       </c>
       <c r="N8">
-        <v>1.048280119552941</v>
+        <v>1.064793778652449</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.01053658030868</v>
+        <v>1.055442031306236</v>
       </c>
       <c r="D9">
-        <v>1.026246740178076</v>
+        <v>1.055226958160917</v>
       </c>
       <c r="E9">
-        <v>1.020490570128892</v>
+        <v>1.061484191466523</v>
       </c>
       <c r="F9">
-        <v>1.020123767993126</v>
+        <v>1.071394497988453</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046531329905385</v>
+        <v>1.04648152790952</v>
       </c>
       <c r="J9">
-        <v>1.035722673666802</v>
+        <v>1.061122176052087</v>
       </c>
       <c r="K9">
-        <v>1.038927866127819</v>
+        <v>1.058328064917145</v>
       </c>
       <c r="L9">
-        <v>1.033259725143764</v>
+        <v>1.064565817756664</v>
       </c>
       <c r="M9">
-        <v>1.032898575494171</v>
+        <v>1.07444577867602</v>
       </c>
       <c r="N9">
-        <v>1.03719351866246</v>
+        <v>1.062629091254495</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.999587973137786</v>
+        <v>1.053460862407867</v>
       </c>
       <c r="D10">
-        <v>1.017842004670824</v>
+        <v>1.05368411580283</v>
       </c>
       <c r="E10">
-        <v>1.010636492545584</v>
+        <v>1.059608545937636</v>
       </c>
       <c r="F10">
-        <v>1.008529021431726</v>
+        <v>1.069137174636916</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042508132050771</v>
+        <v>1.045870047710484</v>
       </c>
       <c r="J10">
-        <v>1.027817947989665</v>
+        <v>1.059674689724243</v>
       </c>
       <c r="K10">
-        <v>1.031896419243218</v>
+        <v>1.057067698577123</v>
       </c>
       <c r="L10">
-        <v>1.024816321269116</v>
+        <v>1.062971861648673</v>
       </c>
       <c r="M10">
-        <v>1.022745970586053</v>
+        <v>1.072468410959027</v>
       </c>
       <c r="N10">
-        <v>1.029277567368176</v>
+        <v>1.061179549330037</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9946568779009146</v>
+        <v>1.052602026591676</v>
       </c>
       <c r="D11">
-        <v>1.014062984766143</v>
+        <v>1.053015128651346</v>
       </c>
       <c r="E11">
-        <v>1.006207671914863</v>
+        <v>1.05879585211024</v>
       </c>
       <c r="F11">
-        <v>1.003319008173098</v>
+        <v>1.068159699331536</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040684275403859</v>
+        <v>1.045603306854969</v>
       </c>
       <c r="J11">
-        <v>1.024253638813141</v>
+        <v>1.059046358390034</v>
       </c>
       <c r="K11">
-        <v>1.028724479018356</v>
+        <v>1.056520279599021</v>
       </c>
       <c r="L11">
-        <v>1.021013462521402</v>
+        <v>1.062280455071779</v>
       </c>
       <c r="M11">
-        <v>1.018178603122691</v>
+        <v>1.071611537538323</v>
       </c>
       <c r="N11">
-        <v>1.02570819646379</v>
+        <v>1.060550325693264</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9927943038968466</v>
+        <v>1.05228286567567</v>
       </c>
       <c r="D12">
-        <v>1.012636663499015</v>
+        <v>1.052766495312108</v>
       </c>
       <c r="E12">
-        <v>1.004536305871392</v>
+        <v>1.058493898695817</v>
       </c>
       <c r="F12">
-        <v>1.001352924714565</v>
+        <v>1.067796610839076</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039993659647976</v>
+        <v>1.045503930654731</v>
       </c>
       <c r="J12">
-        <v>1.022906783768123</v>
+        <v>1.058812730742398</v>
       </c>
       <c r="K12">
-        <v>1.027525704408421</v>
+        <v>1.056316690098449</v>
       </c>
       <c r="L12">
-        <v>1.019577110420922</v>
+        <v>1.062023450344897</v>
       </c>
       <c r="M12">
-        <v>1.016454250642793</v>
+        <v>1.071293153237459</v>
       </c>
       <c r="N12">
-        <v>1.024359428730122</v>
+        <v>1.06031636626757</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9931952734602513</v>
+        <v>1.052351333680812</v>
       </c>
       <c r="D13">
-        <v>1.012943666276037</v>
+        <v>1.052819834462126</v>
       </c>
       <c r="E13">
-        <v>1.004896044004402</v>
+        <v>1.058558672530046</v>
       </c>
       <c r="F13">
-        <v>1.001776093817357</v>
+        <v>1.067874495110857</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040142409284439</v>
+        <v>1.045525260639297</v>
       </c>
       <c r="J13">
-        <v>1.023196754069009</v>
+        <v>1.058862855457851</v>
       </c>
       <c r="K13">
-        <v>1.027783801754987</v>
+        <v>1.056360372259211</v>
       </c>
       <c r="L13">
-        <v>1.019886319986008</v>
+        <v>1.062078587180274</v>
       </c>
       <c r="M13">
-        <v>1.016825425761407</v>
+        <v>1.071361452495344</v>
       </c>
       <c r="N13">
-        <v>1.024649810822095</v>
+        <v>1.060366562165868</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.994503562810882</v>
+        <v>1.052575647757364</v>
       </c>
       <c r="D14">
-        <v>1.013945556232191</v>
+        <v>1.052994579448013</v>
       </c>
       <c r="E14">
-        <v>1.006070065080158</v>
+        <v>1.058770894255455</v>
       </c>
       <c r="F14">
-        <v>1.003157135283083</v>
+        <v>1.068129686567961</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040627462580941</v>
+        <v>1.045595098449488</v>
       </c>
       <c r="J14">
-        <v>1.024142784946785</v>
+        <v>1.059027051516432</v>
       </c>
       <c r="K14">
-        <v>1.028625816620766</v>
+        <v>1.056503456017754</v>
       </c>
       <c r="L14">
-        <v>1.020895229513185</v>
+        <v>1.062259214784912</v>
       </c>
       <c r="M14">
-        <v>1.018036648306141</v>
+        <v>1.071585221925447</v>
       </c>
       <c r="N14">
-        <v>1.025597185172229</v>
+        <v>1.060530991401686</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9953054674412019</v>
+        <v>1.052713834917248</v>
       </c>
       <c r="D15">
-        <v>1.014559803764311</v>
+        <v>1.05310222674415</v>
       </c>
       <c r="E15">
-        <v>1.006789869807381</v>
+        <v>1.058901639993355</v>
       </c>
       <c r="F15">
-        <v>1.004003876080422</v>
+        <v>1.068286916895295</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04092454933369</v>
+        <v>1.045638088461917</v>
       </c>
       <c r="J15">
-        <v>1.024722577265576</v>
+        <v>1.059128186577353</v>
       </c>
       <c r="K15">
-        <v>1.029141837261023</v>
+        <v>1.056591580948203</v>
       </c>
       <c r="L15">
-        <v>1.021513642667151</v>
+        <v>1.062370480729151</v>
       </c>
       <c r="M15">
-        <v>1.018779168004601</v>
+        <v>1.071723079835101</v>
       </c>
       <c r="N15">
-        <v>1.026177800862615</v>
+        <v>1.060632270085994</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9999110293083253</v>
+        <v>1.0535178395673</v>
       </c>
       <c r="D16">
-        <v>1.018089726601271</v>
+        <v>1.053728494543293</v>
       </c>
       <c r="E16">
-        <v>1.010926843128046</v>
+        <v>1.059662470343668</v>
       </c>
       <c r="F16">
-        <v>1.008870603616975</v>
+        <v>1.069202045220946</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042627380404546</v>
+        <v>1.045887708882685</v>
       </c>
       <c r="J16">
-        <v>1.028051381059984</v>
+        <v>1.059716356877196</v>
       </c>
       <c r="K16">
-        <v>1.032104128420964</v>
+        <v>1.057103993529675</v>
       </c>
       <c r="L16">
-        <v>1.025065466739586</v>
+        <v>1.063017722187732</v>
       </c>
       <c r="M16">
-        <v>1.023045309804636</v>
+        <v>1.072525264560916</v>
       </c>
       <c r="N16">
-        <v>1.02951133194023</v>
+        <v>1.061221275655126</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.00274744867132</v>
+        <v>1.05402190592523</v>
       </c>
       <c r="D17">
-        <v>1.020265448414715</v>
+        <v>1.054121086000596</v>
       </c>
       <c r="E17">
-        <v>1.013477172481557</v>
+        <v>1.060139575526244</v>
       </c>
       <c r="F17">
-        <v>1.011871051734406</v>
+        <v>1.069776067165525</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043673041802008</v>
+        <v>1.046043761853824</v>
       </c>
       <c r="J17">
-        <v>1.030100454369154</v>
+        <v>1.060084880734986</v>
       </c>
       <c r="K17">
-        <v>1.033927242205953</v>
+        <v>1.057424966981766</v>
       </c>
       <c r="L17">
-        <v>1.027252953628028</v>
+        <v>1.063423392564581</v>
       </c>
       <c r="M17">
-        <v>1.025674091414206</v>
+        <v>1.073028274158885</v>
       </c>
       <c r="N17">
-        <v>1.031563315168532</v>
+        <v>1.061590322859066</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.004383697681246</v>
+        <v>1.054315825369406</v>
       </c>
       <c r="D18">
-        <v>1.021521149055327</v>
+        <v>1.054349988763137</v>
       </c>
       <c r="E18">
-        <v>1.014949255829916</v>
+        <v>1.060417812308958</v>
       </c>
       <c r="F18">
-        <v>1.013603061996094</v>
+        <v>1.070110880973796</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044275130587754</v>
+        <v>1.046134595327902</v>
       </c>
       <c r="J18">
-        <v>1.031282111052391</v>
+        <v>1.060299684134388</v>
       </c>
       <c r="K18">
-        <v>1.034978459298017</v>
+        <v>1.057612024210016</v>
       </c>
       <c r="L18">
-        <v>1.02851484019489</v>
+        <v>1.063659896412851</v>
       </c>
       <c r="M18">
-        <v>1.027191048538644</v>
+        <v>1.073321607736377</v>
       </c>
       <c r="N18">
-        <v>1.032746649939797</v>
+        <v>1.061805431303932</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.004938599045558</v>
+        <v>1.054416028501724</v>
       </c>
       <c r="D19">
-        <v>1.021947091075636</v>
+        <v>1.054428023638305</v>
       </c>
       <c r="E19">
-        <v>1.015448628978242</v>
+        <v>1.060512675386734</v>
       </c>
       <c r="F19">
-        <v>1.014190631137785</v>
+        <v>1.070225043381883</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044479124394087</v>
+        <v>1.046165535081072</v>
       </c>
       <c r="J19">
-        <v>1.031682777270792</v>
+        <v>1.060372901134181</v>
       </c>
       <c r="K19">
-        <v>1.035334873780847</v>
+        <v>1.05767577863154</v>
       </c>
       <c r="L19">
-        <v>1.028942779837988</v>
+        <v>1.063740518397695</v>
       </c>
       <c r="M19">
-        <v>1.027705575864753</v>
+        <v>1.073421616276102</v>
       </c>
       <c r="N19">
-        <v>1.033147885150185</v>
+        <v>1.061878752280263</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.002445025044263</v>
+        <v>1.05396783412425</v>
       </c>
       <c r="D20">
-        <v>1.020033407309225</v>
+        <v>1.054078973897894</v>
       </c>
       <c r="E20">
-        <v>1.013205161104302</v>
+        <v>1.060088391916186</v>
       </c>
       <c r="F20">
-        <v>1.011551020729608</v>
+        <v>1.069714480439029</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043561667864976</v>
+        <v>1.046027038467234</v>
       </c>
       <c r="J20">
-        <v>1.029882019353288</v>
+        <v>1.060045357185116</v>
       </c>
       <c r="K20">
-        <v>1.033732908598705</v>
+        <v>1.057390546256268</v>
       </c>
       <c r="L20">
-        <v>1.027019720959746</v>
+        <v>1.063379880080479</v>
       </c>
       <c r="M20">
-        <v>1.025393755390511</v>
+        <v>1.072974312579948</v>
       </c>
       <c r="N20">
-        <v>1.031344569949888</v>
+        <v>1.061550743181221</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9941191787224798</v>
+        <v>1.052509597057401</v>
       </c>
       <c r="D21">
-        <v>1.013651163192006</v>
+        <v>1.052943125338072</v>
       </c>
       <c r="E21">
-        <v>1.005725088229647</v>
+        <v>1.058708402559686</v>
       </c>
       <c r="F21">
-        <v>1.002751325250147</v>
+        <v>1.068054539376121</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040484997032225</v>
+        <v>1.045574541158758</v>
       </c>
       <c r="J21">
-        <v>1.023864849088788</v>
+        <v>1.058978706447691</v>
       </c>
       <c r="K21">
-        <v>1.02837844466023</v>
+        <v>1.056461328441252</v>
       </c>
       <c r="L21">
-        <v>1.020598802803474</v>
+        <v>1.062206029605664</v>
       </c>
       <c r="M21">
-        <v>1.017680759738461</v>
+        <v>1.071519330292492</v>
       </c>
       <c r="N21">
-        <v>1.025318854613434</v>
+        <v>1.060482577677402</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9887039782603958</v>
+        <v>1.051591869425909</v>
       </c>
       <c r="D22">
-        <v>1.009506547173131</v>
+        <v>1.052228151009405</v>
       </c>
       <c r="E22">
-        <v>1.000868734699014</v>
+        <v>1.057840267978877</v>
       </c>
       <c r="F22">
-        <v>0.9970387152620844</v>
+        <v>1.067010804623278</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038473964605289</v>
+        <v>1.045288320416389</v>
       </c>
       <c r="J22">
-        <v>1.019948098113993</v>
+        <v>1.058306685690351</v>
       </c>
       <c r="K22">
-        <v>1.024892000983238</v>
+        <v>1.055875623130628</v>
       </c>
       <c r="L22">
-        <v>1.016423001407604</v>
+        <v>1.061466908108706</v>
       </c>
       <c r="M22">
-        <v>1.012669064927229</v>
+        <v>1.070603925088022</v>
       </c>
       <c r="N22">
-        <v>1.021396541402997</v>
+        <v>1.059809602573505</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9915926380217241</v>
+        <v>1.052078458702019</v>
       </c>
       <c r="D23">
-        <v>1.011716777759488</v>
+        <v>1.052607251135509</v>
       </c>
       <c r="E23">
-        <v>1.003458432039255</v>
+        <v>1.058300529289105</v>
       </c>
       <c r="F23">
-        <v>1.000085001411179</v>
+        <v>1.067564115804114</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039547627461007</v>
+        <v>1.045440214742137</v>
       </c>
       <c r="J23">
-        <v>1.022037698296169</v>
+        <v>1.058663067961136</v>
       </c>
       <c r="K23">
-        <v>1.026752121995534</v>
+        <v>1.056186256701987</v>
       </c>
       <c r="L23">
-        <v>1.018650455695733</v>
+        <v>1.061858833408943</v>
       </c>
       <c r="M23">
-        <v>1.01534200213786</v>
+        <v>1.071089256988097</v>
       </c>
       <c r="N23">
-        <v>1.023489109057113</v>
+        <v>1.060166490947992</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.002581733290399</v>
+        <v>1.053992267133673</v>
       </c>
       <c r="D24">
-        <v>1.020138297865576</v>
+        <v>1.054098002819955</v>
       </c>
       <c r="E24">
-        <v>1.013328119030703</v>
+        <v>1.060111519742618</v>
       </c>
       <c r="F24">
-        <v>1.011695684723356</v>
+        <v>1.069742308840311</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043612017079113</v>
+        <v>1.046034595631524</v>
       </c>
       <c r="J24">
-        <v>1.029980762433589</v>
+        <v>1.060063216640423</v>
       </c>
       <c r="K24">
-        <v>1.033820757105586</v>
+        <v>1.057406099998367</v>
       </c>
       <c r="L24">
-        <v>1.027125152014156</v>
+        <v>1.063399541859899</v>
       </c>
       <c r="M24">
-        <v>1.025520477594952</v>
+        <v>1.072998695690471</v>
       </c>
       <c r="N24">
-        <v>1.03144345325669</v>
+        <v>1.061568627999003</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.014626870584532</v>
+        <v>1.056209465494959</v>
       </c>
       <c r="D25">
-        <v>1.029391289103094</v>
+        <v>1.055824447181875</v>
       </c>
       <c r="E25">
-        <v>1.024179386912695</v>
+        <v>1.062211100891067</v>
       </c>
       <c r="F25">
-        <v>1.02446562319652</v>
+        <v>1.072269860532541</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048023782042082</v>
+        <v>1.046716909466778</v>
       </c>
       <c r="J25">
-        <v>1.038671813627299</v>
+        <v>1.06168212445696</v>
       </c>
       <c r="K25">
-        <v>1.0415498545028</v>
+        <v>1.05881534710647</v>
       </c>
       <c r="L25">
-        <v>1.036413596266357</v>
+        <v>1.06518287709045</v>
       </c>
       <c r="M25">
-        <v>1.036695652863615</v>
+        <v>1.075212020081996</v>
       </c>
       <c r="N25">
-        <v>1.040146846739972</v>
+        <v>1.063189834850331</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_227/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_227/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.057975094177015</v>
+        <v>1.023738384046743</v>
       </c>
       <c r="D2">
-        <v>1.057198732715922</v>
+        <v>1.036404190187303</v>
       </c>
       <c r="E2">
-        <v>1.063884259865603</v>
+        <v>1.032411475021527</v>
       </c>
       <c r="F2">
-        <v>1.074285903361631</v>
+        <v>1.034159255399245</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047255178407985</v>
+        <v>1.051324320025035</v>
       </c>
       <c r="J2">
-        <v>1.062968722279131</v>
+        <v>1.045231546698925</v>
       </c>
       <c r="K2">
-        <v>1.059934358194967</v>
+        <v>1.047378625519981</v>
       </c>
       <c r="L2">
-        <v>1.066601692997784</v>
+        <v>1.043437004436679</v>
       </c>
       <c r="M2">
-        <v>1.076975518756298</v>
+        <v>1.045162358090014</v>
       </c>
       <c r="N2">
-        <v>1.064478259788983</v>
+        <v>1.046715895384972</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.059255550931844</v>
+        <v>1.030098501303815</v>
       </c>
       <c r="D3">
-        <v>1.058195054297776</v>
+        <v>1.04130538799458</v>
       </c>
       <c r="E3">
-        <v>1.065098339828122</v>
+        <v>1.038170226778895</v>
       </c>
       <c r="F3">
-        <v>1.075749859333795</v>
+        <v>1.040944916383779</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047642588113682</v>
+        <v>1.053605960926053</v>
       </c>
       <c r="J3">
-        <v>1.063900270894081</v>
+        <v>1.049800975206393</v>
       </c>
       <c r="K3">
-        <v>1.060744004898174</v>
+        <v>1.051435689828225</v>
       </c>
       <c r="L3">
-        <v>1.067629870247748</v>
+        <v>1.048336940115068</v>
       </c>
       <c r="M3">
-        <v>1.07825498305456</v>
+        <v>1.051079390914519</v>
       </c>
       <c r="N3">
-        <v>1.065411131309818</v>
+        <v>1.051291813005041</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.060083402598871</v>
+        <v>1.034104904851801</v>
       </c>
       <c r="D4">
-        <v>1.058839047644678</v>
+        <v>1.044395003228568</v>
       </c>
       <c r="E4">
-        <v>1.065883590519318</v>
+        <v>1.041803252535947</v>
       </c>
       <c r="F4">
-        <v>1.076697225510287</v>
+        <v>1.045228170404796</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04789169323551</v>
+        <v>1.055032626581998</v>
       </c>
       <c r="J4">
-        <v>1.064501843561879</v>
+        <v>1.052674684593822</v>
       </c>
       <c r="K4">
-        <v>1.06126659447615</v>
+        <v>1.053985593116312</v>
       </c>
       <c r="L4">
-        <v>1.068294259798602</v>
+        <v>1.05142202843209</v>
       </c>
       <c r="M4">
-        <v>1.079082448109097</v>
+        <v>1.054809735781749</v>
       </c>
       <c r="N4">
-        <v>1.066013558279805</v>
+        <v>1.054169603389419</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.060431269827482</v>
+        <v>1.035764363236029</v>
       </c>
       <c r="D5">
-        <v>1.059109618416007</v>
+        <v>1.045675184835655</v>
       </c>
       <c r="E5">
-        <v>1.066213631272102</v>
+        <v>1.043309315217032</v>
       </c>
       <c r="F5">
-        <v>1.077095523291868</v>
+        <v>1.047004397940613</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047996041076183</v>
+        <v>1.055620964794838</v>
       </c>
       <c r="J5">
-        <v>1.064754459399422</v>
+        <v>1.053863808942026</v>
       </c>
       <c r="K5">
-        <v>1.061485980414837</v>
+        <v>1.055040333580103</v>
       </c>
       <c r="L5">
-        <v>1.068573353923771</v>
+        <v>1.052699473093074</v>
       </c>
       <c r="M5">
-        <v>1.07943021387318</v>
+        <v>1.056355556461833</v>
       </c>
       <c r="N5">
-        <v>1.066266532860812</v>
+        <v>1.055360416430593</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.060489668888953</v>
+        <v>1.036041572460921</v>
       </c>
       <c r="D6">
-        <v>1.059155038876855</v>
+        <v>1.045889061472288</v>
       </c>
       <c r="E6">
-        <v>1.066269042037022</v>
+        <v>1.043560972659063</v>
       </c>
       <c r="F6">
-        <v>1.077162400820405</v>
+        <v>1.047301236232376</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048013539522867</v>
+        <v>1.055719091992017</v>
       </c>
       <c r="J6">
-        <v>1.064796858047384</v>
+        <v>1.054062379721518</v>
       </c>
       <c r="K6">
-        <v>1.061522798114606</v>
+        <v>1.055216440058588</v>
       </c>
       <c r="L6">
-        <v>1.068620202508586</v>
+        <v>1.052912842785582</v>
       </c>
       <c r="M6">
-        <v>1.079488599475931</v>
+        <v>1.056613823537388</v>
       </c>
       <c r="N6">
-        <v>1.066308991719718</v>
+        <v>1.055559269203368</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.06008805144853</v>
+        <v>1.034127174588151</v>
       </c>
       <c r="D7">
-        <v>1.05884266366667</v>
+        <v>1.044412181398517</v>
       </c>
       <c r="E7">
-        <v>1.065888000845499</v>
+        <v>1.041823458804073</v>
       </c>
       <c r="F7">
-        <v>1.076702547481618</v>
+        <v>1.04525199888838</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047893089012367</v>
+        <v>1.055040532310648</v>
       </c>
       <c r="J7">
-        <v>1.064505220145227</v>
+        <v>1.052690647189374</v>
       </c>
       <c r="K7">
-        <v>1.061269527140315</v>
+        <v>1.053999753348618</v>
       </c>
       <c r="L7">
-        <v>1.0682979899105</v>
+        <v>1.051439173238759</v>
       </c>
       <c r="M7">
-        <v>1.07908709536318</v>
+        <v>1.054830477753235</v>
       </c>
       <c r="N7">
-        <v>1.066016939658288</v>
+        <v>1.054185588653688</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.058407975371499</v>
+        <v>1.025911179529463</v>
       </c>
       <c r="D8">
-        <v>1.057535588999023</v>
+        <v>1.038078062028714</v>
       </c>
       <c r="E8">
-        <v>1.06429463601546</v>
+        <v>1.034377652147944</v>
       </c>
       <c r="F8">
-        <v>1.074780638039057</v>
+        <v>1.036475570103204</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047386432064586</v>
+        <v>1.052105996482811</v>
       </c>
       <c r="J8">
-        <v>1.063283793705032</v>
+        <v>1.046793552639295</v>
       </c>
       <c r="K8">
-        <v>1.060208253666867</v>
+        <v>1.048765809269699</v>
       </c>
       <c r="L8">
-        <v>1.066949360268923</v>
+        <v>1.045111252211024</v>
       </c>
       <c r="M8">
-        <v>1.077408011556388</v>
+        <v>1.047183124228835</v>
       </c>
       <c r="N8">
-        <v>1.064793778652449</v>
+        <v>1.048280119552941</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.055442031306236</v>
+        <v>1.01053658030868</v>
       </c>
       <c r="D9">
-        <v>1.055226958160917</v>
+        <v>1.026246740178076</v>
       </c>
       <c r="E9">
-        <v>1.061484191466523</v>
+        <v>1.020490570128892</v>
       </c>
       <c r="F9">
-        <v>1.071394497988453</v>
+        <v>1.020123767993127</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04648152790952</v>
+        <v>1.046531329905385</v>
       </c>
       <c r="J9">
-        <v>1.061122176052087</v>
+        <v>1.035722673666802</v>
       </c>
       <c r="K9">
-        <v>1.058328064917145</v>
+        <v>1.038927866127819</v>
       </c>
       <c r="L9">
-        <v>1.064565817756664</v>
+        <v>1.033259725143765</v>
       </c>
       <c r="M9">
-        <v>1.07444577867602</v>
+        <v>1.032898575494171</v>
       </c>
       <c r="N9">
-        <v>1.062629091254495</v>
+        <v>1.03719351866246</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.053460862407867</v>
+        <v>0.9995879731377859</v>
       </c>
       <c r="D10">
-        <v>1.05368411580283</v>
+        <v>1.017842004670824</v>
       </c>
       <c r="E10">
-        <v>1.059608545937636</v>
+        <v>1.010636492545584</v>
       </c>
       <c r="F10">
-        <v>1.069137174636916</v>
+        <v>1.008529021431726</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045870047710484</v>
+        <v>1.042508132050771</v>
       </c>
       <c r="J10">
-        <v>1.059674689724243</v>
+        <v>1.027817947989665</v>
       </c>
       <c r="K10">
-        <v>1.057067698577123</v>
+        <v>1.031896419243218</v>
       </c>
       <c r="L10">
-        <v>1.062971861648673</v>
+        <v>1.024816321269116</v>
       </c>
       <c r="M10">
-        <v>1.072468410959027</v>
+        <v>1.022745970586052</v>
       </c>
       <c r="N10">
-        <v>1.061179549330037</v>
+        <v>1.029277567368176</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.052602026591676</v>
+        <v>0.9946568779009133</v>
       </c>
       <c r="D11">
-        <v>1.053015128651346</v>
+        <v>1.014062984766142</v>
       </c>
       <c r="E11">
-        <v>1.05879585211024</v>
+        <v>1.006207671914861</v>
       </c>
       <c r="F11">
-        <v>1.068159699331536</v>
+        <v>1.003319008173096</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045603306854969</v>
+        <v>1.040684275403859</v>
       </c>
       <c r="J11">
-        <v>1.059046358390034</v>
+        <v>1.02425363881314</v>
       </c>
       <c r="K11">
-        <v>1.056520279599021</v>
+        <v>1.028724479018355</v>
       </c>
       <c r="L11">
-        <v>1.062280455071779</v>
+        <v>1.021013462521401</v>
       </c>
       <c r="M11">
-        <v>1.071611537538323</v>
+        <v>1.018178603122689</v>
       </c>
       <c r="N11">
-        <v>1.060550325693264</v>
+        <v>1.025708196463789</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.05228286567567</v>
+        <v>0.992794303896848</v>
       </c>
       <c r="D12">
-        <v>1.052766495312108</v>
+        <v>1.012636663499016</v>
       </c>
       <c r="E12">
-        <v>1.058493898695817</v>
+        <v>1.004536305871394</v>
       </c>
       <c r="F12">
-        <v>1.067796610839076</v>
+        <v>1.001352924714566</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045503930654731</v>
+        <v>1.039993659647977</v>
       </c>
       <c r="J12">
-        <v>1.058812730742398</v>
+        <v>1.022906783768124</v>
       </c>
       <c r="K12">
-        <v>1.056316690098449</v>
+        <v>1.027525704408422</v>
       </c>
       <c r="L12">
-        <v>1.062023450344897</v>
+        <v>1.019577110420923</v>
       </c>
       <c r="M12">
-        <v>1.071293153237459</v>
+        <v>1.016454250642794</v>
       </c>
       <c r="N12">
-        <v>1.06031636626757</v>
+        <v>1.024359428730123</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.052351333680812</v>
+        <v>0.9931952734602518</v>
       </c>
       <c r="D13">
-        <v>1.052819834462126</v>
+        <v>1.012943666276037</v>
       </c>
       <c r="E13">
-        <v>1.058558672530046</v>
+        <v>1.004896044004402</v>
       </c>
       <c r="F13">
-        <v>1.067874495110857</v>
+        <v>1.001776093817358</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045525260639297</v>
+        <v>1.04014240928444</v>
       </c>
       <c r="J13">
-        <v>1.058862855457851</v>
+        <v>1.023196754069009</v>
       </c>
       <c r="K13">
-        <v>1.056360372259211</v>
+        <v>1.027783801754987</v>
       </c>
       <c r="L13">
-        <v>1.062078587180274</v>
+        <v>1.019886319986008</v>
       </c>
       <c r="M13">
-        <v>1.071361452495344</v>
+        <v>1.016825425761407</v>
       </c>
       <c r="N13">
-        <v>1.060366562165868</v>
+        <v>1.024649810822096</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.052575647757364</v>
+        <v>0.9945035628108819</v>
       </c>
       <c r="D14">
-        <v>1.052994579448013</v>
+        <v>1.01394555623219</v>
       </c>
       <c r="E14">
-        <v>1.058770894255455</v>
+        <v>1.006070065080158</v>
       </c>
       <c r="F14">
-        <v>1.068129686567961</v>
+        <v>1.003157135283083</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045595098449488</v>
+        <v>1.040627462580941</v>
       </c>
       <c r="J14">
-        <v>1.059027051516432</v>
+        <v>1.024142784946785</v>
       </c>
       <c r="K14">
-        <v>1.056503456017754</v>
+        <v>1.028625816620766</v>
       </c>
       <c r="L14">
-        <v>1.062259214784912</v>
+        <v>1.020895229513185</v>
       </c>
       <c r="M14">
-        <v>1.071585221925447</v>
+        <v>1.018036648306141</v>
       </c>
       <c r="N14">
-        <v>1.060530991401686</v>
+        <v>1.025597185172229</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.052713834917248</v>
+        <v>0.995305467441203</v>
       </c>
       <c r="D15">
-        <v>1.05310222674415</v>
+        <v>1.014559803764312</v>
       </c>
       <c r="E15">
-        <v>1.058901639993355</v>
+        <v>1.006789869807382</v>
       </c>
       <c r="F15">
-        <v>1.068286916895295</v>
+        <v>1.004003876080424</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045638088461917</v>
+        <v>1.04092454933369</v>
       </c>
       <c r="J15">
-        <v>1.059128186577353</v>
+        <v>1.024722577265577</v>
       </c>
       <c r="K15">
-        <v>1.056591580948203</v>
+        <v>1.029141837261024</v>
       </c>
       <c r="L15">
-        <v>1.062370480729151</v>
+        <v>1.021513642667152</v>
       </c>
       <c r="M15">
-        <v>1.071723079835101</v>
+        <v>1.018779168004602</v>
       </c>
       <c r="N15">
-        <v>1.060632270085994</v>
+        <v>1.026177800862617</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.0535178395673</v>
+        <v>0.9999110293083247</v>
       </c>
       <c r="D16">
-        <v>1.053728494543293</v>
+        <v>1.018089726601271</v>
       </c>
       <c r="E16">
-        <v>1.059662470343668</v>
+        <v>1.010926843128046</v>
       </c>
       <c r="F16">
-        <v>1.069202045220946</v>
+        <v>1.008870603616974</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045887708882685</v>
+        <v>1.042627380404546</v>
       </c>
       <c r="J16">
-        <v>1.059716356877196</v>
+        <v>1.028051381059983</v>
       </c>
       <c r="K16">
-        <v>1.057103993529675</v>
+        <v>1.032104128420964</v>
       </c>
       <c r="L16">
-        <v>1.063017722187732</v>
+        <v>1.025065466739586</v>
       </c>
       <c r="M16">
-        <v>1.072525264560916</v>
+        <v>1.023045309804636</v>
       </c>
       <c r="N16">
-        <v>1.061221275655126</v>
+        <v>1.02951133194023</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.05402190592523</v>
+        <v>1.00274744867132</v>
       </c>
       <c r="D17">
-        <v>1.054121086000596</v>
+        <v>1.020265448414715</v>
       </c>
       <c r="E17">
-        <v>1.060139575526244</v>
+        <v>1.013477172481557</v>
       </c>
       <c r="F17">
-        <v>1.069776067165525</v>
+        <v>1.011871051734406</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046043761853824</v>
+        <v>1.043673041802007</v>
       </c>
       <c r="J17">
-        <v>1.060084880734986</v>
+        <v>1.030100454369154</v>
       </c>
       <c r="K17">
-        <v>1.057424966981766</v>
+        <v>1.033927242205953</v>
       </c>
       <c r="L17">
-        <v>1.063423392564581</v>
+        <v>1.027252953628028</v>
       </c>
       <c r="M17">
-        <v>1.073028274158885</v>
+        <v>1.025674091414206</v>
       </c>
       <c r="N17">
-        <v>1.061590322859066</v>
+        <v>1.031563315168532</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.054315825369406</v>
+        <v>1.004383697681247</v>
       </c>
       <c r="D18">
-        <v>1.054349988763137</v>
+        <v>1.021521149055327</v>
       </c>
       <c r="E18">
-        <v>1.060417812308958</v>
+        <v>1.014949255829916</v>
       </c>
       <c r="F18">
-        <v>1.070110880973796</v>
+        <v>1.013603061996094</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046134595327902</v>
+        <v>1.044275130587755</v>
       </c>
       <c r="J18">
-        <v>1.060299684134388</v>
+        <v>1.031282111052391</v>
       </c>
       <c r="K18">
-        <v>1.057612024210016</v>
+        <v>1.034978459298017</v>
       </c>
       <c r="L18">
-        <v>1.063659896412851</v>
+        <v>1.02851484019489</v>
       </c>
       <c r="M18">
-        <v>1.073321607736377</v>
+        <v>1.027191048538644</v>
       </c>
       <c r="N18">
-        <v>1.061805431303932</v>
+        <v>1.032746649939797</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.054416028501724</v>
+        <v>1.004938599045559</v>
       </c>
       <c r="D19">
-        <v>1.054428023638305</v>
+        <v>1.021947091075636</v>
       </c>
       <c r="E19">
-        <v>1.060512675386734</v>
+        <v>1.015448628978243</v>
       </c>
       <c r="F19">
-        <v>1.070225043381883</v>
+        <v>1.014190631137786</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046165535081072</v>
+        <v>1.044479124394087</v>
       </c>
       <c r="J19">
-        <v>1.060372901134181</v>
+        <v>1.031682777270792</v>
       </c>
       <c r="K19">
-        <v>1.05767577863154</v>
+        <v>1.035334873780848</v>
       </c>
       <c r="L19">
-        <v>1.063740518397695</v>
+        <v>1.028942779837989</v>
       </c>
       <c r="M19">
-        <v>1.073421616276102</v>
+        <v>1.027705575864754</v>
       </c>
       <c r="N19">
-        <v>1.061878752280263</v>
+        <v>1.033147885150186</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.05396783412425</v>
+        <v>1.002445025044262</v>
       </c>
       <c r="D20">
-        <v>1.054078973897894</v>
+        <v>1.020033407309224</v>
       </c>
       <c r="E20">
-        <v>1.060088391916186</v>
+        <v>1.013205161104301</v>
       </c>
       <c r="F20">
-        <v>1.069714480439029</v>
+        <v>1.011551020729608</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046027038467234</v>
+        <v>1.043561667864976</v>
       </c>
       <c r="J20">
-        <v>1.060045357185116</v>
+        <v>1.029882019353287</v>
       </c>
       <c r="K20">
-        <v>1.057390546256268</v>
+        <v>1.033732908598704</v>
       </c>
       <c r="L20">
-        <v>1.063379880080479</v>
+        <v>1.027019720959746</v>
       </c>
       <c r="M20">
-        <v>1.072974312579948</v>
+        <v>1.025393755390511</v>
       </c>
       <c r="N20">
-        <v>1.061550743181221</v>
+        <v>1.031344569949888</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.052509597057401</v>
+        <v>0.9941191787224782</v>
       </c>
       <c r="D21">
-        <v>1.052943125338072</v>
+        <v>1.013651163192005</v>
       </c>
       <c r="E21">
-        <v>1.058708402559686</v>
+        <v>1.005725088229646</v>
       </c>
       <c r="F21">
-        <v>1.068054539376121</v>
+        <v>1.002751325250145</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045574541158758</v>
+        <v>1.040484997032224</v>
       </c>
       <c r="J21">
-        <v>1.058978706447691</v>
+        <v>1.023864849088786</v>
       </c>
       <c r="K21">
-        <v>1.056461328441252</v>
+        <v>1.028378444660229</v>
       </c>
       <c r="L21">
-        <v>1.062206029605664</v>
+        <v>1.020598802803472</v>
       </c>
       <c r="M21">
-        <v>1.071519330292492</v>
+        <v>1.01768075973846</v>
       </c>
       <c r="N21">
-        <v>1.060482577677402</v>
+        <v>1.025318854613432</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.051591869425909</v>
+        <v>0.9887039782603951</v>
       </c>
       <c r="D22">
-        <v>1.052228151009405</v>
+        <v>1.00950654717313</v>
       </c>
       <c r="E22">
-        <v>1.057840267978877</v>
+        <v>1.000868734699013</v>
       </c>
       <c r="F22">
-        <v>1.067010804623278</v>
+        <v>0.9970387152620835</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045288320416389</v>
+        <v>1.038473964605288</v>
       </c>
       <c r="J22">
-        <v>1.058306685690351</v>
+        <v>1.019948098113993</v>
       </c>
       <c r="K22">
-        <v>1.055875623130628</v>
+        <v>1.024892000983237</v>
       </c>
       <c r="L22">
-        <v>1.061466908108706</v>
+        <v>1.016423001407603</v>
       </c>
       <c r="M22">
-        <v>1.070603925088022</v>
+        <v>1.012669064927229</v>
       </c>
       <c r="N22">
-        <v>1.059809602573505</v>
+        <v>1.021396541402996</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.052078458702019</v>
+        <v>0.9915926380217236</v>
       </c>
       <c r="D23">
-        <v>1.052607251135509</v>
+        <v>1.011716777759488</v>
       </c>
       <c r="E23">
-        <v>1.058300529289105</v>
+        <v>1.003458432039254</v>
       </c>
       <c r="F23">
-        <v>1.067564115804114</v>
+        <v>1.000085001411179</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045440214742137</v>
+        <v>1.039547627461007</v>
       </c>
       <c r="J23">
-        <v>1.058663067961136</v>
+        <v>1.022037698296169</v>
       </c>
       <c r="K23">
-        <v>1.056186256701987</v>
+        <v>1.026752121995533</v>
       </c>
       <c r="L23">
-        <v>1.061858833408943</v>
+        <v>1.018650455695733</v>
       </c>
       <c r="M23">
-        <v>1.071089256988097</v>
+        <v>1.01534200213786</v>
       </c>
       <c r="N23">
-        <v>1.060166490947992</v>
+        <v>1.023489109057112</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.053992267133673</v>
+        <v>1.002581733290399</v>
       </c>
       <c r="D24">
-        <v>1.054098002819955</v>
+        <v>1.020138297865577</v>
       </c>
       <c r="E24">
-        <v>1.060111519742618</v>
+        <v>1.013328119030703</v>
       </c>
       <c r="F24">
-        <v>1.069742308840311</v>
+        <v>1.011695684723356</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046034595631524</v>
+        <v>1.043612017079113</v>
       </c>
       <c r="J24">
-        <v>1.060063216640423</v>
+        <v>1.02998076243359</v>
       </c>
       <c r="K24">
-        <v>1.057406099998367</v>
+        <v>1.033820757105587</v>
       </c>
       <c r="L24">
-        <v>1.063399541859899</v>
+        <v>1.027125152014157</v>
       </c>
       <c r="M24">
-        <v>1.072998695690471</v>
+        <v>1.025520477594952</v>
       </c>
       <c r="N24">
-        <v>1.061568627999003</v>
+        <v>1.03144345325669</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.056209465494959</v>
+        <v>1.014626870584532</v>
       </c>
       <c r="D25">
-        <v>1.055824447181875</v>
+        <v>1.029391289103095</v>
       </c>
       <c r="E25">
-        <v>1.062211100891067</v>
+        <v>1.024179386912695</v>
       </c>
       <c r="F25">
-        <v>1.072269860532541</v>
+        <v>1.02446562319652</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046716909466778</v>
+        <v>1.048023782042082</v>
       </c>
       <c r="J25">
-        <v>1.06168212445696</v>
+        <v>1.038671813627299</v>
       </c>
       <c r="K25">
-        <v>1.05881534710647</v>
+        <v>1.0415498545028</v>
       </c>
       <c r="L25">
-        <v>1.06518287709045</v>
+        <v>1.036413596266357</v>
       </c>
       <c r="M25">
-        <v>1.075212020081996</v>
+        <v>1.036695652863615</v>
       </c>
       <c r="N25">
-        <v>1.063189834850331</v>
+        <v>1.040146846739972</v>
       </c>
     </row>
   </sheetData>
